--- a/ips.xlsx
+++ b/ips.xlsx
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193EAA87-CCC6-4CAB-A997-5D4202AF2714}">
   <dimension ref="C5:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
